--- a/HorariosMatutinos.xlsx
+++ b/HorariosMatutinos.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,20 +480,34 @@
           <t>1644-1</t>
         </is>
       </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
         </is>
       </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 1
-ING. FERNANDO ARREOLA FRANCO </t>
+          <t xml:space="preserve">1644 - 1 - ING. FERNANDO ARREOLA FRANCO </t>
         </is>
       </c>
     </row>
@@ -508,14 +522,29 @@
           <t>1644-1</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
         </is>
       </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
     </row>
@@ -530,14 +559,34 @@
           <t>1644-1</t>
         </is>
       </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
         </is>
       </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
         </is>
       </c>
     </row>
@@ -552,14 +601,29 @@
           <t>1644-1</t>
         </is>
       </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
         </is>
       </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
     </row>
@@ -569,20 +633,34 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 4
-ING. JULIA VAZQUEZ FUENTES </t>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
         </is>
       </c>
     </row>
@@ -592,14 +670,29 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
     </row>
@@ -609,14 +702,29 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 3 - M.A. JOSE LUIS GUILLEN REA </t>
         </is>
       </c>
     </row>
@@ -626,6 +734,16 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -633,6 +751,16 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -640,6 +768,11 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -647,6 +780,16 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 8 - LIC ELSA RUTH MONDRAGON SAAVEDRA </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -654,6 +797,11 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -862,11 +1010,21 @@
           <t>1644-1</t>
         </is>
       </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>1413-9</t>
+        </is>
+      </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
         </is>
       </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>1413-9</t>
+        </is>
+      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
@@ -879,8 +1037,7 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 5
-DR. JUAN CARLOS MARTINEZ ROSAS </t>
+          <t xml:space="preserve">1644 - 1 - ING. FERNANDO ARREOLA FRANCO </t>
         </is>
       </c>
     </row>
@@ -895,9 +1052,19 @@
           <t>1644-1</t>
         </is>
       </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>1413-9</t>
+        </is>
+      </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>1413-9</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
@@ -922,11 +1089,21 @@
           <t>1644-1</t>
         </is>
       </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>1413-9</t>
+        </is>
+      </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
         </is>
       </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>1413-9</t>
+        </is>
+      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
@@ -935,6 +1112,11 @@
       <c r="G44" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
         </is>
       </c>
     </row>
@@ -949,9 +1131,19 @@
           <t>1644-1</t>
         </is>
       </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>1413-9</t>
+        </is>
+      </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
           <t>1644-1</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>1413-9</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
@@ -971,9 +1163,34 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
         </is>
       </c>
     </row>
@@ -983,6 +1200,26 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -995,6 +1232,31 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 3 - M.A. JOSE LUIS GUILLEN REA </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1002,6 +1264,16 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1009,6 +1281,16 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1016,6 +1298,11 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1023,6 +1310,16 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 9 - DR. EDGARDO ULISES BENITEZ ESLAVA </t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1030,6 +1327,11 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1233,6 +1535,21 @@
           <t>07:00</t>
         </is>
       </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -1240,8 +1557,7 @@
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 5
-DR. JUAN CARLOS MARTINEZ ROSAS </t>
+          <t xml:space="preserve">1644 - 1 - ING. FERNANDO ARREOLA FRANCO </t>
         </is>
       </c>
     </row>
@@ -1251,6 +1567,21 @@
           <t>07:30</t>
         </is>
       </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="G83" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -1263,9 +1594,29 @@
           <t>08:00</t>
         </is>
       </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="G84" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
         </is>
       </c>
     </row>
@@ -1275,6 +1626,21 @@
           <t>08:30</t>
         </is>
       </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="G85" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -1289,17 +1655,22 @@
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>406-6</t>
         </is>
       </c>
       <c r="G86" s="1" t="inlineStr">
@@ -1309,8 +1680,7 @@
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 2
-M.I. MARTHA LOPEZ PELCASTRE </t>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
         </is>
       </c>
     </row>
@@ -1322,17 +1692,22 @@
       </c>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>406-6</t>
         </is>
       </c>
       <c r="G87" s="1" t="inlineStr">
@@ -1349,17 +1724,27 @@
       </c>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
         </is>
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 3 - M.A. JOSE LUIS GUILLEN REA </t>
         </is>
       </c>
     </row>
@@ -1369,19 +1754,14 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>1644-2</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>1644-2</t>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
         </is>
       </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
-          <t>1644-2</t>
+          <t>406-6</t>
         </is>
       </c>
     </row>
@@ -1391,6 +1771,26 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1398,6 +1798,21 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F91" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1405,6 +1820,26 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 12 - LIC ELSA RUTH MONDRAGON SAAVEDRA </t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1412,6 +1847,21 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1615,6 +2065,31 @@
           <t>07:00</t>
         </is>
       </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F122" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 1 - ING. FERNANDO ARREOLA FRANCO </t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1622,6 +2097,26 @@
           <t>07:30</t>
         </is>
       </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F123" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1629,6 +2124,31 @@
           <t>08:00</t>
         </is>
       </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F124" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1636,6 +2156,26 @@
           <t>08:30</t>
         </is>
       </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F125" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G125" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1643,20 +2183,34 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F126" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G126" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 4
-ING. JULIA VAZQUEZ FUENTES </t>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
         </is>
       </c>
     </row>
@@ -1666,14 +2220,29 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
       <c r="D127" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F127" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G127" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
     </row>
@@ -1683,14 +2252,29 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
       <c r="D128" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>1537-3</t>
         </is>
       </c>
       <c r="F128" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 3 - M.A. JOSE LUIS GUILLEN REA </t>
         </is>
       </c>
     </row>
@@ -1700,6 +2284,16 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F129" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1707,25 +2301,24 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B130" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
-      <c r="D130" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E130" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
         </is>
       </c>
       <c r="F130" s="1" t="inlineStr">
         <is>
-          <t>1644-3</t>
+          <t>406-6</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 3
-ING. LUCILA PATRICIA ARELLANO MENDOZA </t>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
         </is>
       </c>
     </row>
@@ -1735,19 +2328,19 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B131" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
-      <c r="D131" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E131" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
         </is>
       </c>
       <c r="F131" s="1" t="inlineStr">
         <is>
-          <t>1644-3</t>
+          <t>406-6</t>
         </is>
       </c>
     </row>
@@ -1757,19 +2350,24 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B132" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
-      <c r="D132" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
         </is>
       </c>
       <c r="F132" s="1" t="inlineStr">
         <is>
-          <t>1644-3</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 13 - MTRA. SONIA ROSA BRICEÑO VILORIA </t>
         </is>
       </c>
     </row>
@@ -1779,19 +2377,19 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B133" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
-      <c r="D133" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E133" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
         </is>
       </c>
       <c r="F133" s="1" t="inlineStr">
         <is>
-          <t>1644-3</t>
+          <t>406-6</t>
         </is>
       </c>
     </row>
@@ -1997,6 +2595,31 @@
           <t>07:00</t>
         </is>
       </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
+      <c r="D162" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="E162" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
+      <c r="F162" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="G162" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -2004,8 +2627,7 @@
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 5
-DR. JUAN CARLOS MARTINEZ ROSAS </t>
+          <t xml:space="preserve">1644 - 1 - ING. FERNANDO ARREOLA FRANCO </t>
         </is>
       </c>
     </row>
@@ -2015,6 +2637,31 @@
           <t>07:30</t>
         </is>
       </c>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
+      <c r="D163" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="E163" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
+      <c r="F163" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="G163" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -2027,9 +2674,39 @@
           <t>08:00</t>
         </is>
       </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
+      <c r="D164" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="E164" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
+      <c r="F164" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="G164" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
         </is>
       </c>
     </row>
@@ -2039,6 +2716,31 @@
           <t>08:30</t>
         </is>
       </c>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
+      <c r="D165" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="E165" s="1" t="inlineStr">
+        <is>
+          <t>1413-8</t>
+        </is>
+      </c>
+      <c r="F165" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="G165" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -2051,9 +2753,24 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F166" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
       <c r="G166" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
         </is>
       </c>
     </row>
@@ -2063,6 +2780,16 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F167" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
       <c r="G167" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -2075,6 +2802,26 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F168" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G168" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 5 - ING. HEIDDY ALEJANDRA PASTEN LUGO </t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2082,6 +2829,21 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F169" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G169" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2089,25 +2851,19 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B170" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
-      <c r="D170" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
       <c r="F170" s="1" t="inlineStr">
         <is>
-          <t>1644-3</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G170" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 3
-ING. LUCILA PATRICIA ARELLANO MENDOZA </t>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
         </is>
       </c>
     </row>
@@ -2117,19 +2873,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B171" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
-      <c r="D171" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
       <c r="F171" s="1" t="inlineStr">
         <is>
-          <t>1644-3</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G171" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
         </is>
       </c>
     </row>
@@ -2139,19 +2890,19 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B172" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
-      <c r="D172" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
       <c r="F172" s="1" t="inlineStr">
         <is>
-          <t>1644-3</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G172" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 8 - LIC ELSA RUTH MONDRAGON SAAVEDRA </t>
         </is>
       </c>
     </row>
@@ -2161,19 +2912,14 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B173" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
-      <c r="D173" s="1" t="inlineStr">
-        <is>
-          <t>1644-3</t>
-        </is>
-      </c>
       <c r="F173" s="1" t="inlineStr">
         <is>
-          <t>1644-3</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G173" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
         </is>
       </c>
     </row>
@@ -2379,25 +3125,39 @@
           <t>07:00</t>
         </is>
       </c>
+      <c r="B202" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="C202" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1413-9</t>
+        </is>
+      </c>
+      <c r="D202" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="E202" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1413-9</t>
         </is>
       </c>
       <c r="F202" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G202" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1644 - 5
-ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+          <t xml:space="preserve">1644 - 1 - ING. FERNANDO ARREOLA FRANCO </t>
         </is>
       </c>
     </row>
@@ -2407,19 +3167,34 @@
           <t>07:30</t>
         </is>
       </c>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="C203" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1413-9</t>
+        </is>
+      </c>
+      <c r="D203" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="E203" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1413-9</t>
         </is>
       </c>
       <c r="F203" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G203" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
     </row>
@@ -2429,19 +3204,39 @@
           <t>08:00</t>
         </is>
       </c>
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="C204" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1413-9</t>
+        </is>
+      </c>
+      <c r="D204" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="E204" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1413-9</t>
         </is>
       </c>
       <c r="F204" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G204" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
         </is>
       </c>
     </row>
@@ -2451,19 +3246,34 @@
           <t>08:30</t>
         </is>
       </c>
+      <c r="B205" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
       <c r="C205" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1413-9</t>
+        </is>
+      </c>
+      <c r="D205" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="E205" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1413-9</t>
         </is>
       </c>
       <c r="F205" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G205" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
     </row>
@@ -2473,20 +3283,24 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="D206" s="1" t="inlineStr">
-        <is>
-          <t>1562-4</t>
+      <c r="C206" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
         </is>
       </c>
       <c r="F206" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G206" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 4
-ING. JULIA VAZQUEZ FUENTES </t>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
         </is>
       </c>
     </row>
@@ -2496,14 +3310,19 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="D207" s="1" t="inlineStr">
-        <is>
-          <t>1562-4</t>
+      <c r="C207" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
         </is>
       </c>
       <c r="F207" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G207" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
         </is>
       </c>
     </row>
@@ -2513,14 +3332,24 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="D208" s="1" t="inlineStr">
-        <is>
-          <t>1562-4</t>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
         </is>
       </c>
       <c r="F208" s="1" t="inlineStr">
         <is>
-          <t>1562-4</t>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G208" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 5 - ING. HEIDDY ALEJANDRA PASTEN LUGO </t>
         </is>
       </c>
     </row>
@@ -2530,6 +3359,21 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F209" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G209" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2537,6 +3381,21 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="F210" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G210" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2544,6 +3403,16 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="F211" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G211" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2551,6 +3420,21 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="F212" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G212" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 9 - DR. EDGARDO ULISES BENITEZ ESLAVA </t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -2558,6 +3442,16 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="F213" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G213" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -2761,19 +3655,19 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="C242" s="1" t="inlineStr">
-        <is>
-          <t>1644-5</t>
-        </is>
-      </c>
-      <c r="E242" s="1" t="inlineStr">
-        <is>
-          <t>1644-5</t>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D242" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="F242" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="G242" s="1" t="inlineStr">
@@ -2783,8 +3677,7 @@
       </c>
       <c r="H242" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1562 - 5
-DR. JUAN CARLOS MARTINEZ ROSAS </t>
+          <t xml:space="preserve">1644 - 1 - ING. FERNANDO ARREOLA FRANCO </t>
         </is>
       </c>
     </row>
@@ -2794,19 +3687,19 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="C243" s="1" t="inlineStr">
-        <is>
-          <t>1644-5</t>
-        </is>
-      </c>
-      <c r="E243" s="1" t="inlineStr">
-        <is>
-          <t>1644-5</t>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D243" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="F243" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="G243" s="1" t="inlineStr">
@@ -2821,24 +3714,29 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="C244" s="1" t="inlineStr">
-        <is>
-          <t>1644-5</t>
-        </is>
-      </c>
-      <c r="E244" s="1" t="inlineStr">
-        <is>
-          <t>1644-5</t>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D244" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="F244" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="G244" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
         </is>
       </c>
     </row>
@@ -2848,19 +3746,19 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="C245" s="1" t="inlineStr">
-        <is>
-          <t>1644-5</t>
-        </is>
-      </c>
-      <c r="E245" s="1" t="inlineStr">
-        <is>
-          <t>1644-5</t>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D245" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="F245" s="1" t="inlineStr">
         <is>
-          <t>1644-5</t>
+          <t>1644-1</t>
         </is>
       </c>
       <c r="G245" s="1" t="inlineStr">
@@ -2875,9 +3773,24 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="C246" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F246" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
       <c r="G246" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
         </is>
       </c>
     </row>
@@ -2887,6 +3800,16 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="C247" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F247" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
       <c r="G247" s="1" t="inlineStr">
         <is>
           <t>1562-5</t>
@@ -2899,6 +3822,26 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="C248" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F248" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G248" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 5 - ING. HEIDDY ALEJANDRA PASTEN LUGO </t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -2906,6 +3849,21 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="C249" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F249" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G249" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -2913,6 +3871,31 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="C250" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E250" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F250" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G250" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -2920,6 +3903,26 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E251" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F251" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G251" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -2927,6 +3930,31 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="C252" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E252" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F252" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G252" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 12 - LIC ELSA RUTH MONDRAGON SAAVEDRA </t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -2934,6 +3962,26 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="C253" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E253" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F253" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G253" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -3084,6 +4132,5836 @@
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B282" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D282" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F282" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G282" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 1 - ING. FERNANDO ARREOLA FRANCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B283" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D283" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F283" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G283" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D284" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F284" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G284" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H284" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B285" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="D285" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="F285" s="1" t="inlineStr">
+        <is>
+          <t>1644-1</t>
+        </is>
+      </c>
+      <c r="G285" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C286" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F286" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G286" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H286" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C287" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F287" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G287" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C288" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F288" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G288" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 5 - ING. HEIDDY ALEJANDRA PASTEN LUGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C289" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F289" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G289" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C290" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E290" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F290" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G290" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H290" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="C291" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E291" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F291" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G291" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C292" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E292" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F292" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G292" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H292" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 13 - MTRA. SONIA ROSA BRICEÑO VILORIA </t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C293" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E293" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F293" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G293" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B322" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="C322" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D322" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="E322" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F322" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G322" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B323" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="C323" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D323" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="E323" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F323" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G323" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B324" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="C324" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D324" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="E324" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F324" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G324" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="C325" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E325" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F325" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G325" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C326" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F326" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G326" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C327" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F327" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G327" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C328" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F328" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 1 - M.A. JOSE LUIS GUILLEN REA </t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C329" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F329" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C330" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E330" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F330" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="C331" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E331" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F331" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C332" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E332" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F332" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 12 - LIC ELSA RUTH MONDRAGON SAAVEDRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C333" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E333" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F333" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B362" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="C362" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D362" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="E362" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F362" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G362" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H362" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B363" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="C363" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D363" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="E363" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F363" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G363" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B364" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="C364" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D364" s="1" t="inlineStr">
+        <is>
+          <t>1537-1</t>
+        </is>
+      </c>
+      <c r="E364" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F364" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G364" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H364" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="C365" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E365" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F365" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G365" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C366" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F366" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G366" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H366" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C367" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F367" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G367" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C368" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F368" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H368" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 1 - M.A. JOSE LUIS GUILLEN REA </t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C369" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F369" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C370" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E370" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F370" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H370" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="C371" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E371" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F371" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C372" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E372" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F372" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H372" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 13 - MTRA. SONIA ROSA BRICEÑO VILORIA </t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C373" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E373" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F373" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B402" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="C402" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D402" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="E402" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F402" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G402" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H402" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B403" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="C403" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D403" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="E403" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F403" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G403" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B404" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="C404" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D404" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="E404" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F404" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G404" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H404" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B405" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="C405" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D405" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="E405" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F405" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G405" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B406" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C406" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D406" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F406" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G406" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H406" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B407" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C407" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D407" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F407" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G407" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B408" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C408" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D408" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F408" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H408" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 3 - M.A. JOSE LUIS GUILLEN REA </t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C409" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F409" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F410" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H410" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F411" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F412" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H412" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 1 - ING. PROFESOR POR ASIGNAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F413" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B442" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="C442" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D442" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="E442" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F442" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G442" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H442" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B443" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="C443" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D443" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="E443" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F443" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G443" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B444" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="C444" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D444" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="E444" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F444" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G444" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H444" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B445" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="C445" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D445" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="E445" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F445" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G445" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B446" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C446" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D446" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F446" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G446" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H446" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B447" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C447" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D447" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F447" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G447" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B448" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C448" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D448" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F448" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 3 - M.A. JOSE LUIS GUILLEN REA </t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C449" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F449" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F450" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F451" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F452" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H452" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 2 - DRA MARIA MAGDALENA MEJIA ESTAÑOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F453" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C482" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E482" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F482" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G482" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H482" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="C483" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E483" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F483" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G483" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C484" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E484" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F484" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G484" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="C485" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E485" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F485" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G485" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B486" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C486" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D486" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F486" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G486" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H486" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B487" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C487" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D487" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F487" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G487" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B488" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C488" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D488" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F488" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H488" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 3 - M.A. JOSE LUIS GUILLEN REA </t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C489" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F489" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C490" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E490" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F490" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="C491" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E491" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F491" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C492" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E492" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F492" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 12 - LIC ELSA RUTH MONDRAGON SAAVEDRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C493" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E493" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F493" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C522" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E522" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F522" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G522" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H522" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="C523" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E523" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F523" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G523" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C524" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E524" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F524" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G524" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H524" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="C525" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E525" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F525" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G525" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B526" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C526" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D526" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F526" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G526" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H526" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B527" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C527" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D527" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F527" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G527" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B528" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="C528" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="D528" s="1" t="inlineStr">
+        <is>
+          <t>1537-3</t>
+        </is>
+      </c>
+      <c r="F528" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H528" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 3 - M.A. JOSE LUIS GUILLEN REA </t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C529" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F529" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C530" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E530" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F530" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H530" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="C531" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E531" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F531" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C532" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E532" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F532" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="H532" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 13 - MTRA. SONIA ROSA BRICEÑO VILORIA </t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C533" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E533" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F533" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B562" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="C562" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D562" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="E562" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F562" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G562" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H562" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B563" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="C563" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D563" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="E563" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F563" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G563" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B564" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="C564" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D564" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="E564" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F564" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G564" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H564" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B565" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="C565" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D565" s="1" t="inlineStr">
+        <is>
+          <t>1413-1</t>
+        </is>
+      </c>
+      <c r="E565" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F565" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G565" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C566" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F566" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G566" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H566" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C567" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F567" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G567" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C568" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F568" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G568" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H568" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 5 - ING. HEIDDY ALEJANDRA PASTEN LUGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C569" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F569" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G569" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F570" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G570" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H570" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F571" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G571" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F572" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G572" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H572" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 1 - ING. PROFESOR POR ASIGNAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F573" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G573" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B602" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="C602" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D602" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="E602" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F602" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G602" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H602" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B603" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="C603" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D603" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="E603" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F603" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G603" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B604" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="C604" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D604" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="E604" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F604" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G604" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H604" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B605" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="C605" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="D605" s="1" t="inlineStr">
+        <is>
+          <t>1413-2</t>
+        </is>
+      </c>
+      <c r="E605" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F605" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G605" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C606" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F606" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G606" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H606" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C607" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F607" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G607" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C608" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F608" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G608" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H608" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 5 - ING. HEIDDY ALEJANDRA PASTEN LUGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C609" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F609" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G609" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F610" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G610" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H610" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="F611" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G611" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F612" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G612" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H612" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 2 - DRA MARIA MAGDALENA MEJIA ESTAÑOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F613" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G613" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C642" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E642" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F642" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G642" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H642" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="C643" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E643" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F643" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G643" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C644" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E644" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F644" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G644" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H644" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="C645" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E645" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F645" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G645" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C646" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F646" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G646" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H646" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C647" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F647" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G647" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C648" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F648" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G648" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H648" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 5 - ING. HEIDDY ALEJANDRA PASTEN LUGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C649" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F649" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G649" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C650" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E650" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F650" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G650" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H650" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="C651" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E651" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F651" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G651" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C652" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E652" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F652" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G652" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H652" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 12 - LIC ELSA RUTH MONDRAGON SAAVEDRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C653" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="E653" s="1" t="inlineStr">
+        <is>
+          <t>1413-12</t>
+        </is>
+      </c>
+      <c r="F653" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G653" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Datos del Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C682" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E682" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F682" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G682" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H682" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1644 - 5 - ING. JORGE ALBERTO RODRIGUEZ CAMPOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="C683" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E683" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F683" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G683" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C684" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E684" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F684" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G684" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H684" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6644 - 4 - FIS. JESSICA HUELGAS MORENO </t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="C685" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="E685" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="F685" s="1" t="inlineStr">
+        <is>
+          <t>1644-5</t>
+        </is>
+      </c>
+      <c r="G685" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C686" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F686" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G686" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+      <c r="H686" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1562 - 5 - DR. JUAN CARLOS MARTINEZ ROSAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C687" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F687" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G687" s="1" t="inlineStr">
+        <is>
+          <t>1562-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C688" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F688" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G688" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H688" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537 - 5 - ING. HEIDDY ALEJANDRA PASTEN LUGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C689" s="1" t="inlineStr">
+        <is>
+          <t>6644-4</t>
+        </is>
+      </c>
+      <c r="F689" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G689" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C690" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E690" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F690" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G690" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H690" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">406 - 6 - DR. JOSE ABEL HERRERA CAMACHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="C691" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E691" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F691" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G691" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C692" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E692" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F692" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G692" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+      <c r="H692" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1413 - 13 - MTRA. SONIA ROSA BRICEÑO VILORIA </t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="C693" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="E693" s="1" t="inlineStr">
+        <is>
+          <t>1413-13</t>
+        </is>
+      </c>
+      <c r="F693" s="1" t="inlineStr">
+        <is>
+          <t>406-6</t>
+        </is>
+      </c>
+      <c r="G693" s="1" t="inlineStr">
+        <is>
+          <t>1537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
         <is>
           <t>23:30</t>
         </is>
